--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptives" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Expenditure vs total schools number</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Expenditure vs GDP</t>
+  </si>
+  <si>
+    <t>Macro variables</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041007E1-8A29-4D55-B02A-EC7A68A9CE07}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041007E1-8A29-4D55-B02A-EC7A68A9CE07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -240,7 +243,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0D98944-AE85-4B16-AD95-6D6F16253DC3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D98944-AE85-4B16-AD95-6D6F16253DC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -284,7 +287,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C3C99B7-6545-41E7-8603-35A832C37D06}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3C99B7-6545-41E7-8603-35A832C37D06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -328,7 +331,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5896741-63BA-442A-991C-3232260664E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5896741-63BA-442A-991C-3232260664E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -372,7 +375,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33FE87A1-8D91-44B5-86FF-B87E9DD79D31}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FE87A1-8D91-44B5-86FF-B87E9DD79D31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -416,7 +419,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE8470BE-F3EF-408F-B35D-65DA55A7AAE2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8470BE-F3EF-408F-B35D-65DA55A7AAE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -460,7 +463,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4969E55D-C337-4674-A6DB-642BC4247437}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4969E55D-C337-4674-A6DB-642BC4247437}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +507,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{068D2F1C-8B0B-4AC8-B3E7-EC2680E14479}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068D2F1C-8B0B-4AC8-B3E7-EC2680E14479}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -548,7 +551,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5121FFF1-56EA-4A4C-A570-5A5796B1F2BD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5121FFF1-56EA-4A4C-A570-5A5796B1F2BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -592,7 +595,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74D9DD80-95F6-4D43-9B13-4D756C2D5D06}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D9DD80-95F6-4D43-9B13-4D756C2D5D06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,7 +639,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93FB1940-1B95-4377-87C4-4B8E8DB3078C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FB1940-1B95-4377-87C4-4B8E8DB3078C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -680,7 +683,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0D8155A-C142-4461-BA01-64EBBC0EFE51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D8155A-C142-4461-BA01-64EBBC0EFE51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -724,7 +727,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13639C75-4C6C-4F01-82E5-72D2031A6472}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13639C75-4C6C-4F01-82E5-72D2031A6472}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -742,6 +745,94 @@
         <a:xfrm>
           <a:off x="3657600" y="381000"/>
           <a:ext cx="3276190" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181596</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>181346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9144000"/>
+          <a:ext cx="4448796" cy="2657846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>286262</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="9153525"/>
+          <a:ext cx="3667637" cy="2562583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -954,7 +1045,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A055589-A3AB-474B-B00E-A6133426C9DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A055589-A3AB-474B-B00E-A6133426C9DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -998,7 +1089,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07993376-FADF-42C3-95C5-B3032C9C9960}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07993376-FADF-42C3-95C5-B3032C9C9960}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1042,7 +1133,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3618561-8423-4F96-88CB-261E490C122D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3618561-8423-4F96-88CB-261E490C122D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1177,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E16B1203-B19F-4EC7-AC01-4DF6AE23FB35}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16B1203-B19F-4EC7-AC01-4DF6AE23FB35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1221,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D234B63-24FE-4E40-A1E6-17803154BB5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D234B63-24FE-4E40-A1E6-17803154BB5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1265,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0798E241-6FE3-4A9E-8110-D580D8599928}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0798E241-6FE3-4A9E-8110-D580D8599928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1309,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0013154D-7FC4-459F-80D9-212042170FCD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0013154D-7FC4-459F-80D9-212042170FCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1353,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9773F903-382C-47E4-8028-BAEC88AEB84D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9773F903-382C-47E4-8028-BAEC88AEB84D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1397,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BEAD9FB-001F-444D-9C35-4E3596B96C4E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEAD9FB-001F-444D-9C35-4E3596B96C4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1441,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FA6C043-AEA1-41E2-8D82-D0EF99BC8FE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA6C043-AEA1-41E2-8D82-D0EF99BC8FE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1485,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5486FB06-C327-4500-91FD-39CB51D75110}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5486FB06-C327-4500-91FD-39CB51D75110}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1529,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2C11104-53A3-4CDE-8207-AD9693C1ACFC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C11104-53A3-4CDE-8207-AD9693C1ACFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1573,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76420F61-C8A9-4BBA-8583-A0E22275BCA5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76420F61-C8A9-4BBA-8583-A0E22275BCA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1617,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B995E819-2FA7-46DB-9612-EB14969C3926}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B995E819-2FA7-46DB-9612-EB14969C3926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1666,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CC02E10-4B46-4A59-AE19-E6353F3773F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC02E10-4B46-4A59-AE19-E6353F3773F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1710,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC07187F-F68F-491E-A1D6-17577BE32785}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC07187F-F68F-491E-A1D6-17577BE32785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1754,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44ED8082-2EC0-4B1D-BD23-AAF7A7715941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44ED8082-2EC0-4B1D-BD23-AAF7A7715941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1798,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78033AF8-74E2-4338-B847-87853631CA62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78033AF8-74E2-4338-B847-87853631CA62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1842,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70C8B0FD-2C0B-49F1-AC0E-5D00431F245E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C8B0FD-2C0B-49F1-AC0E-5D00431F245E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1886,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{085302E9-31D7-468D-992D-C7319A32FE1B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085302E9-31D7-468D-992D-C7319A32FE1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,9 +2201,15 @@
         <v>27</v>
       </c>
     </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2120,7 +2217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -2242,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
